--- a/pred_ohlcv/54_21/2020-01-20 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-167205.3391000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-167205.3391000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-167205.3391000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-167205.3391000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-167205.3391000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-167205.3391000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-167205.3391000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-167205.3391000001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-167205.3391000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-539017.9406000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-445462.9406000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1268128.0104</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1268128.0104</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1353111.8513</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2600659.321</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2593151.5612</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2588252.5511</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-3911546.652100001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-3907269.656500001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3742817.235100001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-3745835.385100001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3641598.049400001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-3641598.049400001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-3726598.049400001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-3809172.094500001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-3851206.619400001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-3821206.619400001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-3802344.077500001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-3815203.016300001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-3288539.668800001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-5725980.959250061</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-5491933.16935006</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-5490483.910850059</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-5482895.329650059</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-5482895.329650059</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-5492999.575250059</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-5486159.51795006</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-5478073.95175006</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-5476406.06025006</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-5473653.56255006</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-5473653.56255006</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-5473453.56255006</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 IOST ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-167205.3391000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-167205.3391000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-167205.3391000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-167205.3391000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-167205.3391000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-167205.3391000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-167205.3391000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-539017.9406000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-445462.9406000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1263613.4888</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2588252.5511</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-3911546.652100001</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-3907269.656500001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3742817.235100001</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-3745835.385100001</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3641598.049400001</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-3641598.049400001</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-3726598.049400001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-3809172.094500001</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-3851206.619400001</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-3821206.619400001</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-3802344.077500001</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-3815203.016300001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-3288539.668800001</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3511615.711400001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-3521793.047000001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-5725980.959250061</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-5482895.329650059</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-5482895.329650059</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-5492999.575250059</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-5486159.51795006</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-5478073.95175006</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-5473453.56255006</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-5474453.56255006</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-5572617.76965006</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
